--- a/files/defects/data/defects_stock.xlsx
+++ b/files/defects/data/defects_stock.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowHeight="12690" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="шаблон" sheetId="1" r:id="rId1"/>
-    <sheet name="по отделу" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="по отделу" sheetId="2" r:id="rId2" state="hidden"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">шаблон!$C$4:$S$1078</definedName>
+    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">шаблон!$C$4:$S$1078</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3236,11 +3236,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3338,82 +3338,82 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
